--- a/verification/2023_05_detailed_month_end_by_hand.xlsx
+++ b/verification/2023_05_detailed_month_end_by_hand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E448F-7062-4FE3-AD5D-69F63579AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06BD9D-9D37-4F29-BC2C-9A4BEC967592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1167,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1218,6 +1224,10 @@
     <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,9 +1512,9 @@
   <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,16 +1700,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="40">
         <v>10262.5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="40">
         <v>10262.5</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="41">
         <v>10000</v>
       </c>
       <c r="F14" s="8">
@@ -1720,7 +1730,7 @@
       <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="41">
         <v>5000</v>
       </c>
       <c r="F15" s="8">
@@ -1741,7 +1751,7 @@
       <c r="D16" s="10">
         <v>1140</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="41">
         <v>5000</v>
       </c>
       <c r="F16" s="8">
@@ -3744,10 +3754,10 @@
       <c r="A125" t="s">
         <v>118</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="40">
         <v>10262.5</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="40">
         <v>10262.5</v>
       </c>
       <c r="D125" s="10">
@@ -3849,10 +3859,10 @@
       <c r="A130" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="40">
         <v>10262.5</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="40">
         <v>10262.5</v>
       </c>
       <c r="D130" s="10">
@@ -7265,7 +7275,7 @@
       <c r="A320" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B320" s="33">
+      <c r="B320" s="32">
         <f>-B305</f>
         <v>-95536.87000000001</v>
       </c>
